--- a/pogoda.xlsx
+++ b/pogoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1055,6 +1055,234 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="B17" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D17" t="n">
+        <v>71</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>19:49:06 26-11-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="B18" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D18" t="n">
+        <v>80</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>shower rain</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>40</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>18.504</v>
+      </c>
+      <c r="I18" t="n">
+        <v>40</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>19:34:26 02-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="B19" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D19" t="n">
+        <v>80</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>shower rain</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>40</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>18.504</v>
+      </c>
+      <c r="I19" t="n">
+        <v>40</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>19:34:38 02-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="B20" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D20" t="n">
+        <v>80</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>shower rain</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>40</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>18.504</v>
+      </c>
+      <c r="I20" t="n">
+        <v>40</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>19:38:28 02-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="B21" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D21" t="n">
+        <v>80</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>shower rain</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>40</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>18.504</v>
+      </c>
+      <c r="I21" t="n">
+        <v>40</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>19:38:40 02-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="B22" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D22" t="n">
+        <v>83</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>18.504</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>19:55:08 02-12-2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
